--- a/IVs/2611/B/oscilos.xlsx
+++ b/IVs/2611/B/oscilos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tesis git\tesisfisica\IVs\2611\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porno\tesis 2\tesisfisica\IVs\2611\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C96F74C-9C55-479C-8A79-56645E2CCB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2410E7-9482-4E78-988B-C71FBE674D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C0F1582A-A3AE-4142-B98F-77C68CB106AA}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{C0F1582A-A3AE-4142-B98F-77C68CB106AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>tek0004</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>tek0045</t>
+  </si>
+  <si>
+    <t>30ohm hasta acá</t>
   </si>
 </sst>
 </file>
@@ -540,13 +543,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33DB9BD-129B-4FBB-9133-7F2F5E5C82C7}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -560,12 +563,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -579,7 +582,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -593,7 +596,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -607,7 +610,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -621,7 +624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -635,7 +638,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -649,7 +652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -663,7 +666,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -677,7 +680,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -691,7 +694,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -705,7 +708,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -719,7 +722,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -733,7 +736,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -747,7 +750,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -761,7 +764,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -775,7 +778,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -792,7 +795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -809,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -826,12 +829,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -845,7 +848,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -859,7 +862,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -873,7 +876,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -887,7 +890,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -901,7 +904,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -915,7 +918,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -929,7 +932,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -943,7 +946,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -957,7 +960,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -971,7 +974,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -985,7 +988,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1041,12 +1044,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1198,6 +1201,9 @@
       </c>
       <c r="F45" t="s">
         <v>49</v>
+      </c>
+      <c r="H45" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/IVs/2611/B/oscilos.xlsx
+++ b/IVs/2611/B/oscilos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porno\tesis 2\tesisfisica\IVs\2611\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tesis git\tesisfisica\IVs\2611\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2410E7-9482-4E78-988B-C71FBE674D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83E5150-FE8A-4BE4-89A4-9B17541F7A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{C0F1582A-A3AE-4142-B98F-77C68CB106AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C0F1582A-A3AE-4142-B98F-77C68CB106AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,13 +543,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33DB9BD-129B-4FBB-9133-7F2F5E5C82C7}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -563,12 +563,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -596,7 +596,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -610,7 +610,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -624,7 +624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -638,7 +638,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -652,7 +652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -666,7 +666,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -680,7 +680,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -694,7 +694,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -708,7 +708,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -722,7 +722,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -736,7 +736,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -750,7 +750,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -764,7 +764,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -778,7 +778,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -795,7 +795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -812,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -829,12 +829,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -848,7 +848,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -862,7 +862,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -876,7 +876,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -890,7 +890,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -904,7 +904,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -918,7 +918,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -932,7 +932,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -946,7 +946,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -960,7 +960,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -974,12 +974,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -988,12 +988,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="C33">
         <v>50</v>
@@ -1002,12 +1002,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="C34">
         <v>100</v>
@@ -1016,12 +1016,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="C35">
         <v>150</v>
@@ -1030,12 +1030,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="C36">
         <v>200</v>
@@ -1044,12 +1044,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>53</v>
       </c>

--- a/IVs/2611/B/oscilos.xlsx
+++ b/IVs/2611/B/oscilos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tesis git\tesisfisica\IVs\2611\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83E5150-FE8A-4BE4-89A4-9B17541F7A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5EC354-E346-42C1-9662-5B34D2A8D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C0F1582A-A3AE-4142-B98F-77C68CB106AA}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -601,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -615,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -629,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="C7">
         <v>200</v>
